--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>681810.3815165096</v>
+        <v>706411.8423013701</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>63.68379426480457</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>181.2967769516824</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29.70371983933438</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V12" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>105.3690580549763</v>
+        <v>120.6741422680292</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7.293797437979096</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.234466016111835</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>96.52468151912598</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,7 +2217,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>69.99226724763534</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,58 +2473,58 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,31 +2552,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>106.5898580276211</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>143.0797107018699</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>116.6485294405293</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>168.333920706505</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3278,11 +3278,11 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>56.6123511218909</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>88.05756064065922</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3560,7 +3560,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>5.457456980439127</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>152.2207240410304</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,40 +3673,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>205.5178444382804</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>54.10931576969056</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4340,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4568,7 +4568,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
         <v>176.2910403306274</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.5413885648676</v>
+        <v>589.5289758191096</v>
       </c>
       <c r="C6" t="n">
-        <v>268.5413885648676</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="D6" t="n">
-        <v>268.5413885648676</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5413885648676</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F6" t="n">
         <v>268.5413885648676</v>
@@ -4650,13 +4650,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7567255849356</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7567255849356</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="X6" t="n">
-        <v>436.7567255849356</v>
+        <v>757.7443128391776</v>
       </c>
       <c r="Y6" t="n">
-        <v>436.7567255849356</v>
+        <v>757.7443128391776</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,25 +4829,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4908,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4984,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5042,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5081,10 +5081,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5148,22 +5148,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>807.4381113577983</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>599.8443290969091</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,13 +5279,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.8288664974407</v>
+        <v>700.1783047551123</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3758372163137</v>
+        <v>700.1783047551123</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>551.2438950938611</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>392.0064400884055</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,16 +5358,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5397,10 +5397,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>715.637985778398</v>
+        <v>700.1783047551123</v>
       </c>
       <c r="Y15" t="n">
-        <v>508.0442035175087</v>
+        <v>700.1783047551123</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>26.64861526978757</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>347.6362025240296</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.6788758079141</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,16 +5853,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>866.5574772084888</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>693.1401326591576</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>490.9535380179237</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V21" t="n">
         <v>262.7299197543128</v>
@@ -5944,10 +5944,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>893.3578956645399</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>691.171301023306</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>462.9476827596951</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.9696854242497</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,7 +6315,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>856.3906322504129</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>628.167013986802</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>628.167013986802</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>628.167013986802</v>
       </c>
       <c r="X27" t="n">
-        <v>544.9453212092717</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="Y27" t="n">
-        <v>337.1850224443177</v>
+        <v>420.3155137812691</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6549,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6637,10 +6637,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>430.6185591254734</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C33" t="n">
-        <v>430.6185591254734</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D33" t="n">
-        <v>430.6185591254734</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E33" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>846.2303580959601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>846.2303580959601</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="X33" t="n">
-        <v>638.3788578904273</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y33" t="n">
-        <v>430.6185591254734</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,16 +6959,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
         <v>506.1786963984129</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.4532163200711</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C36" t="n">
-        <v>414.0001870389441</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D36" t="n">
-        <v>414.0001870389441</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E36" t="n">
-        <v>254.7627320334886</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>108.2281740603736</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7026,40 +7026,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X36" t="n">
-        <v>588.4532163200711</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y36" t="n">
-        <v>588.4532163200711</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7196,16 +7196,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
         <v>262.7299197543128</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>163.5245513361216</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5245513361216</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>24.7937259187371</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>810.2988483984843</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7415,7 +7415,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7497,16 +7497,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U42" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>233.4664686820119</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>233.4664686820119</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7670,28 +7670,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>230.3347570753569</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>71.09730206990139</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>71.09730206990139</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>71.09730206990139</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7728,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>774.2973583780361</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>566.7035761171468</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V45" t="n">
-        <v>566.7035761171468</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W45" t="n">
-        <v>566.7035761171468</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7849,7 +7849,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7988,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,7 +8541,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8778,10 +8778,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10431,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10905,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,10 +11063,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11145,7 +11145,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,7 +11306,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>323.5320421805953</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,7 +22689,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22784,10 +22784,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,7 +22799,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,10 +22838,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,7 +22872,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>36.47403988783856</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>51.50381019774284</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23069,25 +23069,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23115,13 +23115,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>82.53172439716208</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,7 +23160,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23258,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23321,7 +23321,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23388,19 +23388,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V12" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23637,10 +23637,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>100.4039271485011</v>
+        <v>85.09884293544827</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23735,22 +23735,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23783,16 +23783,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,10 +23820,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>130.0497197252315</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23859,22 +23859,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>394.1189821444107</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>377.0034726399418</v>
       </c>
     </row>
     <row r="21">
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>3.633152633517156</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,13 +24263,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>41.31998168728992</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>101.6909038562025</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0962526177847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,13 +24488,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>93.57487066720049</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>62.69327450160759</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>54.31162510566892</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>9.241409142173126</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>127.4161621813053</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>116.1520577088959</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>83.36106245441457</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,19 +25199,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>101.03272933351</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>49.28595652255142</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,13 +25479,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>106.7779872560573</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>80.5798631083949</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.1962373724677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.6537128514005</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>3.502225147964936</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>58.1261284668059</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>152.8684495134869</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472011</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.48429638</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457120.4842963797</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.48429638</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457120.48429638</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457120.48429638</v>
+        <v>457120.4842963797</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="D2" t="n">
         <v>141981.8776514384</v>
@@ -26332,7 +26332,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="I2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26347,13 +26347,13 @@
         <v>149544.6052781992</v>
       </c>
       <c r="N2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="O2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514385</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.6898126551459</v>
+        <v>3014.535792589602</v>
       </c>
       <c r="C6" t="n">
-        <v>69015.44639434502</v>
+        <v>71888.2923742795</v>
       </c>
       <c r="D6" t="n">
-        <v>69015.44639434502</v>
+        <v>71888.29237427941</v>
       </c>
       <c r="E6" t="n">
-        <v>102643.0463943451</v>
+        <v>105515.8923742794</v>
       </c>
       <c r="F6" t="n">
-        <v>102643.046394345</v>
+        <v>105515.8923742795</v>
       </c>
       <c r="G6" t="n">
-        <v>96851.65220926047</v>
+        <v>99879.62532765113</v>
       </c>
       <c r="H6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018182</v>
       </c>
       <c r="I6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018182</v>
       </c>
       <c r="J6" t="n">
-        <v>52808.18429321813</v>
+        <v>55836.15741160879</v>
       </c>
       <c r="K6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018183</v>
       </c>
       <c r="L6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018182</v>
       </c>
       <c r="M6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018182</v>
       </c>
       <c r="N6" t="n">
-        <v>106580.6951834276</v>
+        <v>109608.6683018182</v>
       </c>
       <c r="O6" t="n">
-        <v>102643.046394345</v>
+        <v>105515.8923742794</v>
       </c>
       <c r="P6" t="n">
-        <v>102643.046394345</v>
+        <v>105515.8923742795</v>
       </c>
     </row>
   </sheetData>
@@ -34708,10 +34708,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O27" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37865,7 +37865,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,7 +38026,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706411.8423013701</v>
+        <v>707195.988239399</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,58 +676,58 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,10 +794,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -981,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>140.5786793831186</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>63.68379426480457</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.86228322859418</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,7 +1627,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1689,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>120.6741422680292</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1841,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.293797437979096</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.234466016111835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>96.52468151912598</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>50.46697834767995</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>103.9917919211018</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,10 +2642,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>8.443265429500727</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2685,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>106.5898580276211</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2789,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>52.05874725046847</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>216.6999729388017</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>168.333920706505</v>
+        <v>59.68324657255083</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,61 +3195,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>241.0142888776591</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="E36" t="n">
-        <v>56.6123511218909</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>152.2207240410304</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.0294181666926</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3974,17 +3976,17 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54.10931576969056</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4147,61 +4149,61 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>752.1869855945927</v>
-      </c>
-      <c r="O3" t="n">
-        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
         <v>224.0352098159517</v>
@@ -4553,10 +4555,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4571,7 +4573,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.5289758191096</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>415.0759465379826</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D6" t="n">
-        <v>415.0759465379826</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G6" t="n">
         <v>129.8105631474831</v>
@@ -4653,10 +4655,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>757.7443128391776</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.7443128391776</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
         <v>224.0352098159517</v>
@@ -4814,10 +4816,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,25 +4831,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="V8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4884,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>639.2227743377304</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="U9" t="n">
-        <v>639.2227743377304</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="V9" t="n">
-        <v>639.2227743377304</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5078,13 +5080,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="X11" t="n">
-        <v>431.628992076841</v>
-      </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5194,7 +5196,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5261,16 +5263,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="F14" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>700.1783047551123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>700.1783047551123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>551.2438950938611</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>392.0064400884055</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X15" t="n">
-        <v>700.1783047551123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.1783047551123</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5552,13 +5554,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>347.6362025240296</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>26.64861526978757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>555.4877027295624</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>555.4877027295624</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>347.6362025240296</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>347.6362025240296</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5709,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5835,34 +5837,34 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>866.5574772084888</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>693.1401326591576</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>490.9535380179237</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>262.7299197543128</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
         <v>262.7299197543128</v>
@@ -5944,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
         <v>31.35113235729608</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>420.3155137812691</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C27" t="n">
-        <v>420.3155137812691</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D27" t="n">
-        <v>271.3811041200179</v>
+        <v>439.147110064363</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>279.9096550589075</v>
       </c>
       <c r="F27" t="n">
         <v>271.3811041200179</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>856.3906322504129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>628.167013986802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>628.167013986802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>628.167013986802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>420.3155137812691</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>420.3155137812691</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>72.61986894528982</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="31">
@@ -6637,10 +6639,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
         <v>19.28114311021272</v>
@@ -6719,22 +6721,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V32" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
         <v>262.7299197543128</v>
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C33" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D33" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
-        <v>317.2494235330527</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="X33" t="n">
-        <v>317.2494235330527</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y33" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G35" t="n">
         <v>262.7299197543128</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>222.9998941357428</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
-        <v>222.9998941357428</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D36" t="n">
-        <v>222.9998941357428</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7081,13 +7083,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8500717543842</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8500717543842</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>810.2988483984843</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>566.8500717543842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>566.8500717543842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>566.8500717543842</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
         <v>639.2227743377304</v>
@@ -7412,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7497,13 +7499,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>37.81546818692397</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>379.2691667366082</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C45" t="n">
-        <v>379.2691667366082</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>230.3347570753569</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>71.09730206990139</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>71.09730206990139</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>71.09730206990139</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,13 +7730,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
         <v>366.5706756325438</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>547.4845037566762</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>547.4845037566762</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W45" t="n">
-        <v>547.4845037566762</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X45" t="n">
-        <v>547.4845037566762</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>547.4845037566762</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7849,7 +7851,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,10 +8221,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8301,13 +8303,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8462,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,16 +11147,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,7 +11387,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.48311134337176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,10 +22682,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>194.2434736043149</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22869,13 +22871,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>17.0664010722823</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.47403988783856</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
@@ -23069,16 +23071,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>90.82088787524364</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>185.6777949634516</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972316</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>40.18065727760452</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>39.56814895627872</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>44.53299916777313</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>225.8559283604741</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,7 +23515,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23577,22 +23579,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>85.09884293544827</v>
+        <v>191.0829231826191</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,10 +23822,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>130.0497197252315</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23908,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.0034726399418</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.633152633517156</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24184,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>374.8264583819999</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>200.8786745601566</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>41.31998168728992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>101.6909038562026</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,10 +24530,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>136.6259469638832</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>93.57487066720049</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,13 +24621,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>60.17669698602799</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.241409142173126</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>83.36106245441457</v>
+        <v>192.0117365883688</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>98.46051323810809</v>
@@ -25199,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,13 +25213,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="E36" t="n">
-        <v>101.03272933351</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,13 +25289,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25448,7 +25450,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.268238249734111</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>80.5798631083949</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539904</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>356.0618809000771</v>
       </c>
       <c r="D44" t="n">
-        <v>333.52274139514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>58.1261284668059</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433986.5575472011</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457120.48429638</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457120.48429638</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457120.4842963797</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="D2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="E2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="F2" t="n">
         <v>141981.8776514384</v>
@@ -26332,7 +26334,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="I2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26353,7 +26355,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
     </row>
     <row r="3">
@@ -26454,7 +26456,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
         <v>23970.50033531152</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3014.535792589602</v>
+        <v>3014.535792589595</v>
       </c>
       <c r="C6" t="n">
-        <v>71888.2923742795</v>
+        <v>71888.29237427947</v>
       </c>
       <c r="D6" t="n">
-        <v>71888.29237427941</v>
+        <v>71888.29237427944</v>
       </c>
       <c r="E6" t="n">
-        <v>105515.8923742794</v>
+        <v>105515.8923742795</v>
       </c>
       <c r="F6" t="n">
         <v>105515.8923742795</v>
@@ -26537,22 +26539,22 @@
         <v>99879.62532765113</v>
       </c>
       <c r="H6" t="n">
+        <v>109608.6683018183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>109608.6683018183</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55836.15741160882</v>
+      </c>
+      <c r="K6" t="n">
         <v>109608.6683018182</v>
       </c>
-      <c r="I6" t="n">
-        <v>109608.6683018182</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55836.15741160879</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>109608.6683018183</v>
       </c>
-      <c r="L6" t="n">
-        <v>109608.6683018182</v>
-      </c>
       <c r="M6" t="n">
-        <v>109608.6683018182</v>
+        <v>109608.6683018183</v>
       </c>
       <c r="N6" t="n">
         <v>109608.6683018182</v>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="P3" t="n">
         <v>70.5902951096252</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,10 +34941,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35021,13 +35023,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>148.1480627106907</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707195.988239399</v>
+        <v>602963.4899759557</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>140.5786793831186</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1135,64 +1135,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>136.9590004198107</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>19.20171008547518</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>13.66473413638044</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14.69006202085835</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W17" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.5443197363986</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2022,46 +2022,46 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>135.4141600157168</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,28 +2320,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>50.46697834767995</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>103.9917919211018</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>136.5586050911491</v>
       </c>
       <c r="F27" t="n">
-        <v>8.443265429500727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2654,10 +2654,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>52.05874725046847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>18.82248702120299</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>59.68324657255083</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>20.02544070929549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,13 +3362,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>181.2921930499176</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3444,46 +3444,46 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>11.19305615617957</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="F39" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3745,55 +3745,55 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4342,40 +4342,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4412,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>431.628992076841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>224.0352098159517</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="F5" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D5" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E5" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4649,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4704,28 +4704,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="F8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4816,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>268.5413885648676</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5083,10 +5083,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
         <v>618.608711759224</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5229,22 +5229,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
         <v>16.44142755506243</v>
@@ -5360,16 +5360,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>808.268615999202</v>
       </c>
       <c r="T15" t="n">
-        <v>446.4674385625565</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U15" t="n">
-        <v>446.4674385625565</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V15" t="n">
-        <v>238.8736563016672</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W15" t="n">
-        <v>31.27987404077794</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>913.4938269565423</v>
+        <v>594.130397086155</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>594.130397086155</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>594.130397086155</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5709,16 +5709,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V20" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W20" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X20" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.87227564580732</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.87227564580732</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.87227564580732</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.87227564580732</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="22">
@@ -5943,13 +5943,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.0815197256143</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C27" t="n">
-        <v>588.0815197256143</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D27" t="n">
-        <v>439.147110064363</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E27" t="n">
-        <v>279.9096550589075</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6350,7 +6350,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
+        <v>742.8341567219593</v>
+      </c>
+      <c r="V29" t="n">
+        <v>742.8341567219593</v>
+      </c>
+      <c r="W29" t="n">
+        <v>742.8341567219593</v>
+      </c>
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.8037236438013</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C30" t="n">
-        <v>211.3506943626743</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D30" t="n">
-        <v>211.3506943626743</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E30" t="n">
-        <v>211.3506943626743</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>211.3506943626743</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>72.61986894528982</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>716.820924094295</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>716.820924094295</v>
       </c>
       <c r="X30" t="n">
-        <v>554.0190606638694</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.0190606638694</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="31">
@@ -6639,22 +6639,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>574.3779001508697</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>366.5263999453368</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6925,10 +6925,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>862.8876260635219</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C36" t="n">
-        <v>688.4345967823949</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7028,10 +7028,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>780.9337281874871</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C38" t="n">
-        <v>30.58726043968704</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D38" t="n">
-        <v>30.58726043968704</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="E39" t="n">
-        <v>163.5245513361216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7420,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7733,16 +7733,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>233.4664686820119</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>233.4664686820119</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7845,10 +7845,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11150,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O42" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5735414379376</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>42.94812389236411</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,10 +22798,10 @@
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>17.0664010722823</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,10 +23114,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>185.6777949634516</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>68.72369535749363</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,7 +23260,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>40.18065727760452</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>44.53299916777313</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8559283604741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>203.8941394786562</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>191.0829231826191</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W17" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>5.620408958422985</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>133.788295952972</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>64.75056867910476</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,28 +24208,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>200.8786745601566</v>
+        <v>217.5419375433867</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>101.6909038562026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24448,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,10 +24530,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>21.08647536425184</v>
       </c>
       <c r="F27" t="n">
-        <v>136.6259469638832</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24542,10 +24542,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>60.17669698602799</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>213.9781001282223</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>192.0117365883688</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25210,10 +25210,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,13 +25250,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>18.87253564490396</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>370.7373139160822</v>
+        <v>271.0572637491886</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>61.12039893627508</v>
       </c>
       <c r="F39" t="n">
-        <v>2.268238249734111</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>179.3248901303182</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>157.1962373724677</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>356.0618809000771</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>163.3715527109161</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26006,13 +26006,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433986.5575472009</v>
+        <v>433986.5575472008</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433986.5575472008</v>
+        <v>433986.5575472009</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.48429638</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.4842963799</v>
       </c>
     </row>
     <row r="13">
@@ -26316,13 +26316,13 @@
         <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="D2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="E2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="F2" t="n">
         <v>141981.8776514384</v>
@@ -26349,7 +26349,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="N2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="O2" t="n">
         <v>141981.8776514384</v>
@@ -26459,7 +26459,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3014.535792589595</v>
+        <v>-9623.626362270879</v>
       </c>
       <c r="C6" t="n">
-        <v>71888.29237427947</v>
+        <v>59250.13021941888</v>
       </c>
       <c r="D6" t="n">
-        <v>71888.29237427944</v>
+        <v>59250.13021941893</v>
       </c>
       <c r="E6" t="n">
-        <v>105515.8923742795</v>
+        <v>92877.73021941894</v>
       </c>
       <c r="F6" t="n">
-        <v>105515.8923742795</v>
+        <v>92877.73021941897</v>
       </c>
       <c r="G6" t="n">
-        <v>99879.62532765113</v>
+        <v>87661.61470761069</v>
       </c>
       <c r="H6" t="n">
-        <v>109608.6683018183</v>
+        <v>97390.65768177778</v>
       </c>
       <c r="I6" t="n">
-        <v>109608.6683018183</v>
+        <v>97390.65768177775</v>
       </c>
       <c r="J6" t="n">
-        <v>55836.15741160882</v>
+        <v>43618.14679156835</v>
       </c>
       <c r="K6" t="n">
-        <v>109608.6683018182</v>
+        <v>97390.65768177775</v>
       </c>
       <c r="L6" t="n">
-        <v>109608.6683018183</v>
+        <v>97390.65768177778</v>
       </c>
       <c r="M6" t="n">
-        <v>109608.6683018183</v>
+        <v>97390.65768177775</v>
       </c>
       <c r="N6" t="n">
-        <v>109608.6683018182</v>
+        <v>97390.65768177775</v>
       </c>
       <c r="O6" t="n">
-        <v>105515.8923742794</v>
+        <v>92877.73021941897</v>
       </c>
       <c r="P6" t="n">
-        <v>105515.8923742795</v>
+        <v>92877.73021941893</v>
       </c>
     </row>
   </sheetData>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37870,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O42" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
